--- a/results/221021_malesSBP_linreg.xlsx
+++ b/results/221021_malesSBP_linreg.xlsx
@@ -431,19 +431,19 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.62</v>
+        <v>-0.44</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.28</v>
+        <v>-3.16</v>
       </c>
       <c r="E2" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="F2" t="n">
-        <v>0.64535</v>
+        <v>0.7496</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05862</v>
+        <v>0.07374</v>
       </c>
     </row>
     <row r="3">
@@ -454,19 +454,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>3.17</v>
+        <v>3.71</v>
       </c>
       <c r="D3" t="n">
-        <v>0.41</v>
+        <v>0.93</v>
       </c>
       <c r="E3" t="n">
-        <v>5.93</v>
+        <v>6.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02471</v>
+        <v>0.00931</v>
       </c>
       <c r="G3" t="n">
-        <v>0.39261</v>
+        <v>0.36459</v>
       </c>
     </row>
     <row r="4">
@@ -477,19 +477,19 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.69</v>
+        <v>-1.04</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.37</v>
+        <v>-3.74</v>
       </c>
       <c r="E4" t="n">
-        <v>1.98</v>
+        <v>1.67</v>
       </c>
       <c r="F4" t="n">
-        <v>0.60963</v>
+        <v>0.45055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03515</v>
+        <v>0.02783</v>
       </c>
     </row>
     <row r="5">
@@ -500,19 +500,19 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>3.15</v>
+        <v>3.83</v>
       </c>
       <c r="D5" t="n">
-        <v>0.49</v>
+        <v>1.16</v>
       </c>
       <c r="E5" t="n">
-        <v>5.81</v>
+        <v>6.5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02057</v>
+        <v>0.00515</v>
       </c>
       <c r="G5" t="n">
-        <v>0.12865</v>
+        <v>0.2306</v>
       </c>
     </row>
     <row r="6">
@@ -523,19 +523,19 @@
         <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.62</v>
+        <v>-1.81</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.96</v>
+        <v>-5.19</v>
       </c>
       <c r="E6" t="n">
-        <v>0.73</v>
+        <v>1.57</v>
       </c>
       <c r="F6" t="n">
-        <v>0.12409</v>
+        <v>0.2924</v>
       </c>
       <c r="G6" t="n">
-        <v>0.58032</v>
+        <v>0.68337</v>
       </c>
     </row>
     <row r="7">
@@ -546,19 +546,19 @@
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>4.14</v>
+        <v>4.06</v>
       </c>
       <c r="D7" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="E7" t="n">
-        <v>6.69</v>
+        <v>6.67</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00163</v>
+        <v>0.00241</v>
       </c>
       <c r="G7" t="n">
-        <v>0.49265</v>
+        <v>0.73356</v>
       </c>
     </row>
     <row r="8">
@@ -569,19 +569,19 @@
         <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09</v>
+        <v>0.57</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.58</v>
+        <v>-2.15</v>
       </c>
       <c r="E8" t="n">
-        <v>2.76</v>
+        <v>3.29</v>
       </c>
       <c r="F8" t="n">
-        <v>0.94518</v>
+        <v>0.67779</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02143</v>
+        <v>0.03033</v>
       </c>
     </row>
     <row r="9">
@@ -592,19 +592,19 @@
         <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.51</v>
+        <v>-0.33</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.19</v>
+        <v>-3.07</v>
       </c>
       <c r="E9" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="F9" t="n">
-        <v>0.70915</v>
+        <v>0.81381</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0279</v>
+        <v>0.03644</v>
       </c>
     </row>
     <row r="10">
@@ -615,19 +615,19 @@
         <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>2.58</v>
+        <v>3.31</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.83</v>
+        <v>-0.12</v>
       </c>
       <c r="E10" t="n">
-        <v>5.98</v>
+        <v>6.74</v>
       </c>
       <c r="F10" t="n">
-        <v>0.13692</v>
+        <v>0.05859</v>
       </c>
       <c r="G10" t="n">
-        <v>0.56748</v>
+        <v>0.55239</v>
       </c>
     </row>
     <row r="11">
@@ -638,19 +638,19 @@
         <v>17</v>
       </c>
       <c r="C11" t="n">
-        <v>3.15</v>
+        <v>3.91</v>
       </c>
       <c r="D11" t="n">
-        <v>0.12</v>
+        <v>0.88</v>
       </c>
       <c r="E11" t="n">
-        <v>6.18</v>
+        <v>6.94</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04167</v>
+        <v>0.01182</v>
       </c>
       <c r="G11" t="n">
-        <v>0.19765</v>
+        <v>0.16821</v>
       </c>
     </row>
     <row r="12">
@@ -661,19 +661,19 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="D12" t="n">
         <v>0.29</v>
       </c>
       <c r="E12" t="n">
-        <v>5.59</v>
+        <v>5.55</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03012</v>
+        <v>0.03003</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05862</v>
+        <v>0.07374</v>
       </c>
     </row>
     <row r="13">
@@ -684,19 +684,19 @@
         <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>5.26</v>
+        <v>5.18</v>
       </c>
       <c r="D13" t="n">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="E13" t="n">
-        <v>8.4</v>
+        <v>8.27</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00117</v>
+        <v>0.00116</v>
       </c>
       <c r="G13" t="n">
-        <v>0.39261</v>
+        <v>0.36459</v>
       </c>
     </row>
     <row r="14">
@@ -707,19 +707,19 @@
         <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>3.82</v>
+        <v>3.7</v>
       </c>
       <c r="D14" t="n">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="E14" t="n">
-        <v>6.52</v>
+        <v>6.36</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00582</v>
+        <v>0.00665</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03515</v>
+        <v>0.02783</v>
       </c>
     </row>
     <row r="15">
@@ -730,19 +730,19 @@
         <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>5.15</v>
+        <v>4.71</v>
       </c>
       <c r="D15" t="n">
-        <v>2.24</v>
+        <v>1.92</v>
       </c>
       <c r="E15" t="n">
-        <v>8.07</v>
+        <v>7.51</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00061</v>
+        <v>0.00106</v>
       </c>
       <c r="G15" t="n">
-        <v>0.12865</v>
+        <v>0.2306</v>
       </c>
     </row>
     <row r="16">
@@ -753,19 +753,19 @@
         <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="D16" t="n">
         <v>-3.18</v>
       </c>
       <c r="E16" t="n">
-        <v>3.48</v>
+        <v>3.4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.92962</v>
+        <v>0.94865</v>
       </c>
       <c r="G16" t="n">
-        <v>0.58032</v>
+        <v>0.68337</v>
       </c>
     </row>
     <row r="17">
@@ -776,19 +776,19 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>3.16</v>
+        <v>3.1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="E17" t="n">
-        <v>5.89</v>
+        <v>5.74</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02346</v>
+        <v>0.02178</v>
       </c>
       <c r="G17" t="n">
-        <v>0.49265</v>
+        <v>0.73356</v>
       </c>
     </row>
     <row r="18">
@@ -799,19 +799,19 @@
         <v>14</v>
       </c>
       <c r="C18" t="n">
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
       <c r="D18" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="E18" t="n">
-        <v>7.05</v>
+        <v>7.02</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001</v>
+        <v>0.00093</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02143</v>
+        <v>0.03033</v>
       </c>
     </row>
     <row r="19">
@@ -822,19 +822,19 @@
         <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>3.74</v>
+        <v>3.73</v>
       </c>
       <c r="D19" t="n">
         <v>1.06</v>
       </c>
       <c r="E19" t="n">
-        <v>6.43</v>
+        <v>6.4</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00658</v>
+        <v>0.00642</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0279</v>
+        <v>0.03644</v>
       </c>
     </row>
     <row r="20">
@@ -845,19 +845,19 @@
         <v>16</v>
       </c>
       <c r="C20" t="n">
-        <v>4.39</v>
+        <v>4.4</v>
       </c>
       <c r="D20" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="E20" t="n">
-        <v>7.57</v>
+        <v>7.56</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00717</v>
+        <v>0.00648</v>
       </c>
       <c r="G20" t="n">
-        <v>0.56748</v>
+        <v>0.55239</v>
       </c>
     </row>
     <row r="21">
@@ -868,19 +868,19 @@
         <v>17</v>
       </c>
       <c r="C21" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.6</v>
+        <v>-0.58</v>
       </c>
       <c r="E21" t="n">
-        <v>5.77</v>
+        <v>5.7</v>
       </c>
       <c r="F21" t="n">
-        <v>0.11162</v>
+        <v>0.10987</v>
       </c>
       <c r="G21" t="n">
-        <v>0.19765</v>
+        <v>0.16821</v>
       </c>
     </row>
   </sheetData>
